--- a/detected_text_data_n.xlsx
+++ b/detected_text_data_n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeadInnovationz\Task 18\Task 18 _ API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41474A2D-7BB9-49F4-BF43-0E031A761ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DF5BE0-3B73-4B30-ADF8-A8F3F855A6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="173">
   <si>
     <t>ID</t>
   </si>
@@ -502,13 +502,43 @@
     <t>4 CM 44 CM 1 CM</t>
   </si>
   <si>
-    <t>2024-09-13 11:21:15</t>
-  </si>
-  <si>
-    <t>84.99%</t>
+    <t>2024-09-13 12:39:27</t>
+  </si>
+  <si>
+    <t>87.34%</t>
   </si>
   <si>
     <t>XX/XX/XXXX</t>
+  </si>
+  <si>
+    <t>2024-09-13 12:41:16</t>
+  </si>
+  <si>
+    <t>79.89%</t>
+  </si>
+  <si>
+    <t>2024-09-13 12:41:41</t>
+  </si>
+  <si>
+    <t>56.81%</t>
+  </si>
+  <si>
+    <t>0 KG</t>
+  </si>
+  <si>
+    <t>2024-09-13 12:43:21</t>
+  </si>
+  <si>
+    <t>91.16%</t>
+  </si>
+  <si>
+    <t>2024-09-13 12:43:37</t>
+  </si>
+  <si>
+    <t>75.04%</t>
+  </si>
+  <si>
+    <t>0.00 CC</t>
   </si>
 </sst>
 </file>
@@ -529,12 +559,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -564,11 +600,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,13 +908,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" customWidth="1"/>
+    <col min="17" max="17" width="20.21875" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" customWidth="1"/>
+    <col min="20" max="20" width="18.109375" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" customWidth="1"/>
+    <col min="22" max="22" width="34" customWidth="1"/>
+    <col min="23" max="24" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -1700,71 +1756,355 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="P15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X15" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>162</v>
       </c>
     </row>
